--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2347,7 +2347,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B96" t="n">
         <v>15</v>
@@ -2359,7 +2359,7 @@
         <v>50</v>
       </c>
       <c r="E96" t="n">
-        <v>84.62</v>
+        <v>84.75</v>
       </c>
       <c r="F96" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2347,7 +2347,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B96" t="n">
         <v>15</v>
@@ -2359,7 +2359,7 @@
         <v>50</v>
       </c>
       <c r="E96" t="n">
-        <v>84.75</v>
+        <v>84.81999999999999</v>
       </c>
       <c r="F96" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2365,6 +2365,26 @@
         <v>10201</v>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>41</v>
+      </c>
+      <c r="B97" t="n">
+        <v>15</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D97" t="n">
+        <v>50</v>
+      </c>
+      <c r="E97" t="n">
+        <v>84.84999999999999</v>
+      </c>
+      <c r="F97" t="n">
+        <v>10201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2367,7 +2367,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B97" t="n">
         <v>15</v>
@@ -2379,7 +2379,7 @@
         <v>50</v>
       </c>
       <c r="E97" t="n">
-        <v>84.84999999999999</v>
+        <v>85.14</v>
       </c>
       <c r="F97" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2385,6 +2385,26 @@
         <v>10201</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>7</v>
+      </c>
+      <c r="B98" t="n">
+        <v>15</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D98" t="n">
+        <v>50</v>
+      </c>
+      <c r="E98" t="n">
+        <v>82.20999999999999</v>
+      </c>
+      <c r="F98" t="n">
+        <v>10201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2387,7 +2387,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B98" t="n">
         <v>15</v>
@@ -2399,7 +2399,7 @@
         <v>50</v>
       </c>
       <c r="E98" t="n">
-        <v>82.20999999999999</v>
+        <v>82.44</v>
       </c>
       <c r="F98" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2387,7 +2387,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B98" t="n">
         <v>15</v>
@@ -2399,7 +2399,7 @@
         <v>50</v>
       </c>
       <c r="E98" t="n">
-        <v>82.44</v>
+        <v>82.72</v>
       </c>
       <c r="F98" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2405,6 +2405,26 @@
         <v>10201</v>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>17</v>
+      </c>
+      <c r="B99" t="n">
+        <v>15</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D99" t="n">
+        <v>50</v>
+      </c>
+      <c r="E99" t="n">
+        <v>82.95999999999999</v>
+      </c>
+      <c r="F99" t="n">
+        <v>10201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2407,7 +2407,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B99" t="n">
         <v>15</v>
@@ -2419,7 +2419,7 @@
         <v>50</v>
       </c>
       <c r="E99" t="n">
-        <v>82.95999999999999</v>
+        <v>83.68000000000001</v>
       </c>
       <c r="F99" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2407,7 +2407,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B99" t="n">
         <v>15</v>
@@ -2419,7 +2419,7 @@
         <v>50</v>
       </c>
       <c r="E99" t="n">
-        <v>83.68000000000001</v>
+        <v>83.73999999999999</v>
       </c>
       <c r="F99" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2425,6 +2425,26 @@
         <v>10201</v>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>28</v>
+      </c>
+      <c r="B100" t="n">
+        <v>15</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D100" t="n">
+        <v>50</v>
+      </c>
+      <c r="E100" t="n">
+        <v>83.81999999999999</v>
+      </c>
+      <c r="F100" t="n">
+        <v>10201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2427,7 +2427,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B100" t="n">
         <v>15</v>
@@ -2439,7 +2439,7 @@
         <v>50</v>
       </c>
       <c r="E100" t="n">
-        <v>83.81999999999999</v>
+        <v>84.31999999999999</v>
       </c>
       <c r="F100" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2427,7 +2427,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B100" t="n">
         <v>15</v>
@@ -2439,7 +2439,7 @@
         <v>50</v>
       </c>
       <c r="E100" t="n">
-        <v>84.31999999999999</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="F100" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2427,7 +2427,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B100" t="n">
         <v>15</v>
@@ -2439,7 +2439,7 @@
         <v>50</v>
       </c>
       <c r="E100" t="n">
-        <v>84.79000000000001</v>
+        <v>85.13</v>
       </c>
       <c r="F100" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,6 +2445,26 @@
         <v>10201</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>47</v>
+      </c>
+      <c r="B101" t="n">
+        <v>15</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D101" t="n">
+        <v>50</v>
+      </c>
+      <c r="E101" t="n">
+        <v>85.37</v>
+      </c>
+      <c r="F101" t="n">
+        <v>10201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2447,7 +2447,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B101" t="n">
         <v>15</v>
@@ -2459,7 +2459,7 @@
         <v>50</v>
       </c>
       <c r="E101" t="n">
-        <v>85.37</v>
+        <v>85.75</v>
       </c>
       <c r="F101" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2447,7 +2447,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B101" t="n">
         <v>15</v>
@@ -2459,7 +2459,7 @@
         <v>50</v>
       </c>
       <c r="E101" t="n">
-        <v>85.75</v>
+        <v>85.89</v>
       </c>
       <c r="F101" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2447,7 +2447,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B101" t="n">
         <v>15</v>
@@ -2459,7 +2459,7 @@
         <v>50</v>
       </c>
       <c r="E101" t="n">
-        <v>85.89</v>
+        <v>87.92</v>
       </c>
       <c r="F101" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2465,6 +2465,26 @@
         <v>10201</v>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>70</v>
+      </c>
+      <c r="B102" t="n">
+        <v>15</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D102" t="n">
+        <v>50</v>
+      </c>
+      <c r="E102" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="F102" t="n">
+        <v>10201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2467,7 +2467,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B102" t="n">
         <v>15</v>
@@ -2479,7 +2479,7 @@
         <v>50</v>
       </c>
       <c r="E102" t="n">
-        <v>87.3</v>
+        <v>86.92</v>
       </c>
       <c r="F102" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2485,6 +2485,26 @@
         <v>10201</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>11</v>
+      </c>
+      <c r="B103" t="n">
+        <v>20</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D103" t="n">
+        <v>50</v>
+      </c>
+      <c r="E103" t="n">
+        <v>82.13</v>
+      </c>
+      <c r="F103" t="n">
+        <v>10201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2487,7 +2487,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B103" t="n">
         <v>20</v>
@@ -2499,7 +2499,7 @@
         <v>50</v>
       </c>
       <c r="E103" t="n">
-        <v>82.13</v>
+        <v>82.72</v>
       </c>
       <c r="F103" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2487,7 +2487,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B103" t="n">
         <v>20</v>
@@ -2499,7 +2499,7 @@
         <v>50</v>
       </c>
       <c r="E103" t="n">
-        <v>82.72</v>
+        <v>83.01000000000001</v>
       </c>
       <c r="F103" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2505,6 +2505,26 @@
         <v>10201</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>27</v>
+      </c>
+      <c r="B104" t="n">
+        <v>20</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D104" t="n">
+        <v>50</v>
+      </c>
+      <c r="E104" t="n">
+        <v>83.73999999999999</v>
+      </c>
+      <c r="F104" t="n">
+        <v>10201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2507,7 +2507,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B104" t="n">
         <v>20</v>
@@ -2519,7 +2519,7 @@
         <v>50</v>
       </c>
       <c r="E104" t="n">
-        <v>83.73999999999999</v>
+        <v>84.12</v>
       </c>
       <c r="F104" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2525,6 +2525,26 @@
         <v>10201</v>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>34</v>
+      </c>
+      <c r="B105" t="n">
+        <v>20</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D105" t="n">
+        <v>50</v>
+      </c>
+      <c r="E105" t="n">
+        <v>84.43000000000001</v>
+      </c>
+      <c r="F105" t="n">
+        <v>10201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2527,7 +2527,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B105" t="n">
         <v>20</v>
@@ -2539,7 +2539,7 @@
         <v>50</v>
       </c>
       <c r="E105" t="n">
-        <v>84.43000000000001</v>
+        <v>84.81</v>
       </c>
       <c r="F105" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2527,7 +2527,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B105" t="n">
         <v>20</v>
@@ -2539,7 +2539,7 @@
         <v>50</v>
       </c>
       <c r="E105" t="n">
-        <v>84.81</v>
+        <v>85.15000000000001</v>
       </c>
       <c r="F105" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2527,7 +2527,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B105" t="n">
         <v>20</v>
@@ -2539,7 +2539,7 @@
         <v>50</v>
       </c>
       <c r="E105" t="n">
-        <v>85.15000000000001</v>
+        <v>85.83</v>
       </c>
       <c r="F105" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2545,6 +2545,26 @@
         <v>10201</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>50</v>
+      </c>
+      <c r="B106" t="n">
+        <v>20</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D106" t="n">
+        <v>50</v>
+      </c>
+      <c r="E106" t="n">
+        <v>86.09</v>
+      </c>
+      <c r="F106" t="n">
+        <v>10201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2547,7 +2547,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B106" t="n">
         <v>20</v>
@@ -2559,7 +2559,7 @@
         <v>50</v>
       </c>
       <c r="E106" t="n">
-        <v>86.09</v>
+        <v>87.26000000000001</v>
       </c>
       <c r="F106" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2547,7 +2547,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B106" t="n">
         <v>20</v>
@@ -2559,7 +2559,7 @@
         <v>50</v>
       </c>
       <c r="E106" t="n">
-        <v>87.26000000000001</v>
+        <v>87.42</v>
       </c>
       <c r="F106" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2547,7 +2547,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B106" t="n">
         <v>20</v>
@@ -2559,7 +2559,7 @@
         <v>50</v>
       </c>
       <c r="E106" t="n">
-        <v>87.42</v>
+        <v>88.06999999999999</v>
       </c>
       <c r="F106" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2565,6 +2565,26 @@
         <v>10201</v>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>70</v>
+      </c>
+      <c r="B107" t="n">
+        <v>20</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D107" t="n">
+        <v>50</v>
+      </c>
+      <c r="E107" t="n">
+        <v>88.06999999999999</v>
+      </c>
+      <c r="F107" t="n">
+        <v>10201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2579,7 +2579,7 @@
         <v>50</v>
       </c>
       <c r="E107" t="n">
-        <v>88.06999999999999</v>
+        <v>88.08</v>
       </c>
       <c r="F107" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2579,7 +2579,7 @@
         <v>50</v>
       </c>
       <c r="E107" t="n">
-        <v>88.08</v>
+        <v>88.09</v>
       </c>
       <c r="F107" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2567,7 +2567,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B107" t="n">
         <v>20</v>
@@ -2579,7 +2579,7 @@
         <v>50</v>
       </c>
       <c r="E107" t="n">
-        <v>88.09</v>
+        <v>88.28</v>
       </c>
       <c r="F107" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2567,7 +2567,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B107" t="n">
         <v>20</v>
@@ -2579,7 +2579,7 @@
         <v>50</v>
       </c>
       <c r="E107" t="n">
-        <v>88.28</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F107" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2567,7 +2567,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B107" t="n">
         <v>20</v>
@@ -2579,7 +2579,7 @@
         <v>50</v>
       </c>
       <c r="E107" t="n">
-        <v>88.40000000000001</v>
+        <v>89.12</v>
       </c>
       <c r="F107" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2585,6 +2585,26 @@
         <v>10201</v>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>83</v>
+      </c>
+      <c r="B108" t="n">
+        <v>20</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D108" t="n">
+        <v>50</v>
+      </c>
+      <c r="E108" t="n">
+        <v>89.75</v>
+      </c>
+      <c r="F108" t="n">
+        <v>10201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2587,7 +2587,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B108" t="n">
         <v>20</v>
@@ -2599,7 +2599,7 @@
         <v>50</v>
       </c>
       <c r="E108" t="n">
-        <v>89.75</v>
+        <v>91.36</v>
       </c>
       <c r="F108" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2587,7 +2587,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="B108" t="n">
         <v>20</v>
@@ -2599,7 +2599,7 @@
         <v>50</v>
       </c>
       <c r="E108" t="n">
-        <v>91.36</v>
+        <v>85.39</v>
       </c>
       <c r="F108" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2605,6 +2605,26 @@
         <v>10201</v>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>71</v>
+      </c>
+      <c r="B109" t="n">
+        <v>20</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D109" t="n">
+        <v>50</v>
+      </c>
+      <c r="E109" t="n">
+        <v>88.27</v>
+      </c>
+      <c r="F109" t="n">
+        <v>10201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2607,7 +2607,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B109" t="n">
         <v>20</v>
@@ -2619,7 +2619,7 @@
         <v>50</v>
       </c>
       <c r="E109" t="n">
-        <v>88.27</v>
+        <v>84.17</v>
       </c>
       <c r="F109" t="n">
         <v>10201</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2625,6 +2625,26 @@
         <v>10201</v>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>90</v>
+      </c>
+      <c r="B110" t="n">
+        <v>26</v>
+      </c>
+      <c r="C110" t="n">
+        <v>3</v>
+      </c>
+      <c r="D110" t="n">
+        <v>190</v>
+      </c>
+      <c r="E110" t="n">
+        <v>91.68000000000001</v>
+      </c>
+      <c r="F110" t="n">
+        <v>10200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2645,6 +2645,26 @@
         <v>10200</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>61</v>
+      </c>
+      <c r="B111" t="n">
+        <v>37</v>
+      </c>
+      <c r="C111" t="n">
+        <v>3</v>
+      </c>
+      <c r="D111" t="n">
+        <v>41</v>
+      </c>
+      <c r="E111" t="n">
+        <v>91</v>
+      </c>
+      <c r="F111" t="n">
+        <v>10200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2665,6 +2665,26 @@
         <v>10200</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>90</v>
+      </c>
+      <c r="B112" t="n">
+        <v>37</v>
+      </c>
+      <c r="C112" t="n">
+        <v>3</v>
+      </c>
+      <c r="D112" t="n">
+        <v>102</v>
+      </c>
+      <c r="E112" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="F112" t="n">
+        <v>10200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2676,10 +2676,10 @@
         <v>3</v>
       </c>
       <c r="D112" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E112" t="n">
-        <v>97.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="F112" t="n">
         <v>10200</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2685,6 +2685,26 @@
         <v>10200</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>90</v>
+      </c>
+      <c r="B113" t="n">
+        <v>37</v>
+      </c>
+      <c r="C113" t="n">
+        <v>3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>100</v>
+      </c>
+      <c r="E113" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="F113" t="n">
+        <v>10200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2699,7 +2699,7 @@
         <v>100</v>
       </c>
       <c r="E113" t="n">
-        <v>97.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="F113" t="n">
         <v>10200</v>

--- a/data_base.xlsx
+++ b/data_base.xlsx
@@ -2699,7 +2699,7 @@
         <v>100</v>
       </c>
       <c r="E113" t="n">
-        <v>97.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F113" t="n">
         <v>10200</v>
